--- a/slr/tc/data(AutoRecovered).xlsx
+++ b/slr/tc/data(AutoRecovered).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/tc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE716D89-2169-6849-9402-510D7D541A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FA1023-987B-F941-85A1-60A5E6DBCEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="860" windowWidth="32080" windowHeight="29620" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
+    <workbookView xWindow="2220" yWindow="6300" windowWidth="46480" windowHeight="29320" xr2:uid="{EA58F7B1-A336-BA43-B667-67D0190BCF67}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$V$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -7807,14 +7806,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BDA490-D3D2-8642-8D77-C5B5F4413C49}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Z64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="O60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="I62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q64" sqref="Q64"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3:K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8205,7 +8203,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="17" customFormat="1" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" s="17" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -8271,7 +8269,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="17" customFormat="1" ht="187" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -8690,7 +8688,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="17" customFormat="1" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -8759,7 +8757,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="17" customFormat="1" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>12</v>
       </c>
@@ -8828,7 +8826,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="17" customFormat="1" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>13</v>
       </c>
@@ -8895,7 +8893,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="17" customFormat="1" ht="306" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" s="17" customFormat="1" ht="306" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>14</v>
       </c>
@@ -9173,7 +9171,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="1:26" s="17" customFormat="1" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>18</v>
       </c>
@@ -9388,7 +9386,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="17" customFormat="1" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>21</v>
       </c>
@@ -9455,7 +9453,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="17" customFormat="1" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>22</v>
       </c>
@@ -9520,7 +9518,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:26" s="17" customFormat="1" ht="255" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>23</v>
       </c>
@@ -9591,7 +9589,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="17" customFormat="1" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>24</v>
       </c>
@@ -9662,7 +9660,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="27" spans="1:26" s="17" customFormat="1" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" s="17" customFormat="1" ht="170" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>25</v>
       </c>
@@ -9727,7 +9725,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:26" s="17" customFormat="1" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" s="17" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>26</v>
       </c>
@@ -9792,7 +9790,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="17" customFormat="1" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" s="17" customFormat="1" ht="238" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>27</v>
       </c>
@@ -9859,7 +9857,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="30" spans="1:26" s="17" customFormat="1" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>28</v>
       </c>
@@ -9924,7 +9922,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="17" customFormat="1" ht="187" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" s="17" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>29</v>
       </c>
@@ -10066,7 +10064,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="33" spans="1:26" s="17" customFormat="1" ht="255" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <v>31</v>
       </c>
@@ -10492,7 +10490,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:26" s="17" customFormat="1" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" s="17" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
         <v>37</v>
       </c>
@@ -10701,7 +10699,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="42" spans="1:26" s="17" customFormat="1" ht="404" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" s="17" customFormat="1" ht="404" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
         <v>40</v>
       </c>
@@ -10841,7 +10839,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="17" customFormat="1" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
         <v>42</v>
       </c>
@@ -10910,7 +10908,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="45" spans="1:26" s="17" customFormat="1" ht="289" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" s="17" customFormat="1" ht="289" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
         <v>43</v>
       </c>
@@ -10979,7 +10977,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="46" spans="1:26" s="17" customFormat="1" ht="289" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" s="17" customFormat="1" ht="289" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
         <v>44</v>
       </c>
@@ -11054,7 +11052,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="47" spans="1:26" s="17" customFormat="1" ht="255" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
         <v>45</v>
       </c>
@@ -11341,7 +11339,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:26" s="17" customFormat="1" ht="388" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" s="17" customFormat="1" ht="388" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
         <v>49</v>
       </c>
@@ -11475,7 +11473,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="53" spans="1:26" s="17" customFormat="1" ht="255" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A53" s="13">
         <v>51</v>
       </c>
@@ -11690,7 +11688,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="56" spans="1:26" s="17" customFormat="1" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" s="17" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A56" s="13">
         <v>54</v>
       </c>
@@ -11757,7 +11755,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="57" spans="1:26" s="17" customFormat="1" ht="289" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" s="17" customFormat="1" ht="289" x14ac:dyDescent="0.2">
       <c r="A57" s="13">
         <v>55</v>
       </c>
@@ -12036,7 +12034,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="61" spans="1:26" s="17" customFormat="1" ht="255" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" s="17" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A61" s="13">
         <v>59</v>
       </c>
@@ -12101,7 +12099,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="62" spans="1:26" s="17" customFormat="1" ht="372" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" s="17" customFormat="1" ht="372" x14ac:dyDescent="0.2">
       <c r="A62" s="13">
         <v>60</v>
       </c>
@@ -12170,7 +12168,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="63" spans="1:26" s="17" customFormat="1" ht="340" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" s="17" customFormat="1" ht="340" x14ac:dyDescent="0.2">
       <c r="A63" s="13">
         <v>61</v>
       </c>
@@ -12313,13 +12311,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V64" xr:uid="{01BDA490-D3D2-8642-8D77-C5B5F4413C49}">
-    <filterColumn colId="15">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:V64" xr:uid="{01BDA490-D3D2-8642-8D77-C5B5F4413C49}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
